--- a/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,94</t>
+          <t>3,66; 10,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,54</t>
+          <t>3,11; 10,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,46</t>
+          <t>0,91; 5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,02</t>
+          <t>0,56; 6,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,83</t>
+          <t>6,49; 16,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,9</t>
+          <t>3,35; 10,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,09</t>
+          <t>3,45; 10,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,37</t>
+          <t>1,91; 8,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,66</t>
+          <t>5,91; 11,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,97</t>
+          <t>3,81; 8,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,3</t>
+          <t>2,72; 7,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,59</t>
+          <t>1,7; 5,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,97</t>
+          <t>2,38; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,41</t>
+          <t>1,19; 4,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,44</t>
+          <t>1,56; 5,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,09</t>
+          <t>1,64; 10,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 16,36</t>
+          <t>1,82; 5,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,84</t>
+          <t>1,25; 4,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,96</t>
+          <t>1,21; 5,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,25</t>
+          <t>0,28; 2,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,94</t>
+          <t>2,72; 5,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,82</t>
+          <t>1,55; 3,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,24</t>
+          <t>1,62; 4,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,96</t>
+          <t>1,24; 4,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,42</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,85</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,26</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,02</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,71</t>
+          <t>0,0; 56,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,48</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 21,06</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 16,79</t>
+          <t>0,0; 29,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,97</t>
+          <t>3,46; 12,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,41</t>
+          <t>2,26; 10,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,44</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,09</t>
+          <t>0,76; 6,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 16,36</t>
+          <t>3,92; 14,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,84</t>
+          <t>2,19; 11,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,96</t>
+          <t>2,35; 12,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,25</t>
+          <t>1,08; 8,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,94</t>
+          <t>4,61; 11,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,82</t>
+          <t>3,02; 9,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,24</t>
+          <t>1,57; 6,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,96</t>
+          <t>1,25; 5,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>3,64%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,94</t>
+          <t>3,33; 11,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,54</t>
+          <t>1,56; 6,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,46</t>
+          <t>1,89; 7,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,02</t>
+          <t>1,73; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,83</t>
+          <t>4,62; 13,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,9</t>
+          <t>3,55; 11,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,09</t>
+          <t>1,74; 7,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,37</t>
+          <t>1,08; 7,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,66</t>
+          <t>4,46; 10,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,97</t>
+          <t>2,96; 7,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,3</t>
+          <t>2,35; 5,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,59</t>
+          <t>1,92; 5,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,93</t>
+          <t>1,41; 5,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,51</t>
+          <t>1,01; 6,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,47</t>
+          <t>0,54; 5,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,55</t>
+          <t>1,02; 11,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,89</t>
+          <t>1,54; 5,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,28</t>
+          <t>0,45; 4,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,76</t>
+          <t>1,23; 6,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,86</t>
+          <t>0,27; 2,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,79</t>
+          <t>1,79; 4,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,25</t>
+          <t>1,14; 4,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,37</t>
+          <t>1,13; 4,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,65</t>
+          <t>0,97; 6,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 7,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 5,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 4,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 6,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 8,2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 6,14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 5,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 3,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 6,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 5,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 4,38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 4,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,02</t>
+          <t>0,0; 58,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,76</t>
+          <t>0,0; 34,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,82</t>
+          <t>3,39; 13,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 10,55</t>
+          <t>2,23; 10,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 5,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,63</t>
+          <t>0,22; 7,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 14,5</t>
+          <t>4,44; 14,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 11,51</t>
+          <t>1,92; 11,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,2</t>
+          <t>2,38; 12,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 8,2</t>
+          <t>0,97; 8,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,4</t>
+          <t>4,67; 11,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,24</t>
+          <t>2,95; 8,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,46</t>
+          <t>1,53; 6,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,46</t>
+          <t>1,17; 6,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 11,75</t>
+          <t>3,17; 11,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,96</t>
+          <t>1,61; 7,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,97</t>
+          <t>1,84; 7,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,2</t>
+          <t>1,85; 7,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 13,14</t>
+          <t>4,26; 13,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 11,11</t>
+          <t>3,3; 10,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,13</t>
+          <t>1,64; 6,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,38</t>
+          <t>1,11; 7,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,72</t>
+          <t>4,48; 10,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,6</t>
+          <t>2,9; 7,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,9</t>
+          <t>2,37; 5,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,76</t>
+          <t>1,95; 5,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,47</t>
+          <t>1,32; 5,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,24</t>
+          <t>1,31; 6,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,05</t>
+          <t>0,54; 5,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 11,86</t>
+          <t>0,94; 10,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,89</t>
+          <t>1,59; 6,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,6</t>
+          <t>0,46; 4,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,55</t>
+          <t>1,21; 6,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,53</t>
+          <t>0,27; 2,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,79</t>
+          <t>1,87; 4,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,01</t>
+          <t>1,2; 4,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,5</t>
+          <t>1,23; 4,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,64</t>
+          <t>0,84; 6,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,04</t>
+          <t>3,32; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,62</t>
+          <t>2,34; 5,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,38</t>
+          <t>1,5; 4,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,72</t>
+          <t>1,82; 6,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,2</t>
+          <t>3,89; 8,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,14</t>
+          <t>2,8; 6,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,99</t>
+          <t>2,48; 5,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,93</t>
+          <t>1,2; 3,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,87</t>
+          <t>3,96; 6,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,27</t>
+          <t>2,96; 5,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,38</t>
+          <t>2,2; 4,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,57</t>
+          <t>1,83; 4,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -671,29 +671,29 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,72%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -724,54 +724,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 52,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 20,75</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 18,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>0; 26,42</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 58,34</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 18,74</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>0; 44,41</t>
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,8</t>
+          <t>0,0; 27,73</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,9%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5,22%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>1,52%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,38%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 13,05</t>
+          <t>4,16; 14,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,33</t>
+          <t>2,51; 11,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,33</t>
+          <t>2,35; 11,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,18</t>
+          <t>1,04; 8,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 14,51</t>
+          <t>3,32; 13,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,19</t>
+          <t>2,18; 9,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 12,26</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,31</t>
+          <t>0,75; 6,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,69</t>
+          <t>4,83; 11,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,97</t>
+          <t>3,01; 8,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,44</t>
+          <t>1,54; 6,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,19</t>
+          <t>1,32; 5,82</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>6,54%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,73%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4,11%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,65%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 11,35</t>
+          <t>4,2; 13,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 7,23</t>
+          <t>3,35; 10,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,26</t>
+          <t>1,64; 6,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,37</t>
+          <t>1,01; 6,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 13,79</t>
+          <t>3,44; 11,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,86</t>
+          <t>1,57; 7,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,77</t>
+          <t>1,8; 7,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,87</t>
+          <t>1,61; 7,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 10,19</t>
+          <t>4,65; 10,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,43</t>
+          <t>2,96; 7,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,99</t>
+          <t>2,36; 6,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,77</t>
+          <t>1,71; 5,56</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>2,88%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,88%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>1,73%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,57%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,08</t>
+          <t>1,23; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,29</t>
+          <t>0,46; 4,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,02</t>
+          <t>1,35; 6,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 10,91</t>
+          <t>0,28; 2,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,41</t>
+          <t>1,35; 5,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,72</t>
+          <t>1,0; 5,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,47</t>
+          <t>0,53; 4,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,9</t>
+          <t>0,94; 10,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,86</t>
+          <t>1,8; 4,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,23</t>
+          <t>1,18; 4,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,79</t>
+          <t>1,21; 4,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,58</t>
+          <t>1,02; 6,04</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>4,83%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>3,77%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>2,65%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,03</t>
+          <t>4,08; 7,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,58</t>
+          <t>2,54; 6,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,5</t>
+          <t>2,39; 5,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,67</t>
+          <t>1,15; 3,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,01</t>
+          <t>3,21; 6,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,3</t>
+          <t>2,39; 5,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,74</t>
+          <t>1,57; 4,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,9</t>
+          <t>1,89; 6,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,67</t>
+          <t>4,05; 6,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,32</t>
+          <t>2,9; 5,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,38</t>
+          <t>2,19; 4,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,5</t>
+          <t>1,95; 4,61</t>
         </is>
       </c>
     </row>
